--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168420.485202672</v>
+        <v>1164280.778788716</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9938209.087412387</v>
+        <v>9935259.190460294</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>50.2774423996114</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>283.0103879733684</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09591959794396</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>77.35970163560626</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>131.8115452551356</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>22.38276862971153</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>181.4261959358951</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>4.756515304261043</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461515</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>146.8340739597077</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.9632162960285</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>237.74112346794</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>49.59803757554739</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>157.2276889092491</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>278.530485006098</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.35573761503231</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.78297506860809</v>
       </c>
       <c r="G13" t="n">
-        <v>41.65302880045135</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>57.98257224873319</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>240.874389632234</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40.78297506860855</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.69227910319968</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422876402</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277503</v>
       </c>
       <c r="T44" t="n">
         <v>90.90562710059311</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2174.782969737749</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="C2" t="n">
-        <v>2123.997674384606</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.556545601274</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>1557.916092096458</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737749</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737749</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737749</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737749</v>
+        <v>1215.809282799976</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021442</v>
+        <v>655.0354850191686</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622364</v>
+        <v>504.3812545792609</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837168</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946045</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777363</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777363</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466461</v>
+        <v>1552.274689874027</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>2065.877368483715</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2065.877368483715</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1838.173504851615</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1628.110361530257</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1405.570359901324</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1175.453114034611</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>986.1460363846227</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>806.83181946013</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.6073235307463</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C4" t="n">
-        <v>354.6073235307463</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D4" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E4" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="W4" t="n">
-        <v>811.7997069311199</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="X4" t="n">
-        <v>577.7193847141029</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.6073235307463</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2008.2694146788</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="C5" t="n">
-        <v>1985.660557477071</v>
+        <v>852.9611654812857</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.219428693739</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M5" t="n">
-        <v>726.404217313676</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.2694146788</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.2694146788</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.2694146788</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.2694146788</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="W5" t="n">
-        <v>2008.2694146788</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.2694146788</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="Y5" t="n">
-        <v>2008.2694146788</v>
+        <v>1246.136666978355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021442</v>
+        <v>703.184559508882</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622364</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837168</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946045</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777363</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591878</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675983</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431056</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.8129058187022</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>191.8129058187022</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>191.8129058187022</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>191.8129058187022</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>191.8129058187022</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V7" t="n">
-        <v>709.2236301045415</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="W7" t="n">
-        <v>425.8932280357191</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="X7" t="n">
-        <v>191.8129058187022</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.8129058187022</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1312.910320720983</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>1312.910320720983</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>927.469191937651</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>927.469191937651</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>510.5747534676287</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>97.41199795563188</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.895775511779</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W8" t="n">
-        <v>2109.895775511779</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="X8" t="n">
-        <v>2109.895775511779</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="Y8" t="n">
-        <v>1713.40506643238</v>
+        <v>1175.892476341718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4990,19 +4990,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
         <v>47.31297010154361</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406338</v>
+        <v>1589.282783693955</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055462</v>
+        <v>1267.90355734308</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>986.5596330944958</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572342</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
         <v>314.4059029914312</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3089.435438119885</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2937.731110825495</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2937.731110825495</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2937.731110825495</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2937.731110825495</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X11" t="n">
-        <v>2620.074780904746</v>
+        <v>2242.675688192363</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.380346971541</v>
+        <v>1917.981254259158</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
         <v>1974.833293963354</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.4385749083266</v>
+        <v>103.314052015841</v>
       </c>
       <c r="C13" t="n">
-        <v>188.0297321205095</v>
+        <v>103.314052015841</v>
       </c>
       <c r="D13" t="n">
-        <v>104.1928941692179</v>
+        <v>103.314052015841</v>
       </c>
       <c r="E13" t="n">
-        <v>104.1928941692179</v>
+        <v>103.314052015841</v>
       </c>
       <c r="F13" t="n">
-        <v>104.1928941692179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840482</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614197</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905966</v>
+        <v>368.0415815981112</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.8503184534338</v>
+        <v>216.7257955609484</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1361.068988064615</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C14" t="n">
-        <v>1039.689761713739</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D14" t="n">
-        <v>726.044908076601</v>
+        <v>711.7339944900339</v>
       </c>
       <c r="E14" t="n">
-        <v>726.044908076601</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654572</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2556.972116723525</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.769356838007</v>
+        <v>2317.807308897205</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.461892563023</v>
+        <v>2000.150978976456</v>
       </c>
       <c r="Y14" t="n">
-        <v>1689.767458629818</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.6487873449487</v>
+        <v>103.3140520158413</v>
       </c>
       <c r="C16" t="n">
-        <v>147.6487873449487</v>
+        <v>103.3140520158413</v>
       </c>
       <c r="D16" t="n">
-        <v>147.6487873449487</v>
+        <v>103.3140520158413</v>
       </c>
       <c r="E16" t="n">
-        <v>147.6487873449487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
         <v>62.11912770411553</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1488.962662922386</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1357.94285425113</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1194.020077565558</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>980.3775609536524</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>786.1944909206704</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>574.6603639980419</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X16" t="n">
-        <v>412.3763169272189</v>
+        <v>368.0415815981112</v>
       </c>
       <c r="Y16" t="n">
-        <v>261.060530890056</v>
+        <v>216.7257955609484</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5677,7 +5677,7 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
         <v>623.4297566485498</v>
@@ -5692,7 +5692,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>381.858273766342</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229888</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6069,13 +6069,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,37 +6230,37 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343937</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1925.441780118091</v>
       </c>
       <c r="N26" t="n">
         <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420326</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>814.2514907939589</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1470.029462004518</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,19 +6464,19 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>606.9665031662631</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6488,7 +6488,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108101</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640391</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>726.626098018571</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.21948246417</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.493475235821</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873283</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465403</v>
+        <v>693.3398934768792</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>876.5295275080884</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450176</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6941,13 +6941,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>596.176270190801</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7087,34 +7087,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829235</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229871</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222406</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960404</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343044</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655136</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803428</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7561,34 +7561,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924321</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7804,19 +7804,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
         <v>967.2827903862335</v>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>548.7422328429437</v>
       </c>
       <c r="M2" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>312.0096393411949</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211831</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>100.3669100581418</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,16 +8216,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>380.2272642146506</v>
       </c>
       <c r="N5" t="n">
-        <v>629.2256623067482</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>554.0405189317986</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>178.0263139717787</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,13 +8459,13 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>466.7144144634705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>505.6324667106232</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>476.2460796729735</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8778,10 +8778,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9009,22 +9009,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,25 +9477,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>690.2992872583815</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9717,16 +9717,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>613.9497439416874</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114043</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>424.3297954396439</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10589,7 +10589,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987036</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10917,10 +10917,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11376,13 +11376,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>31.977920094669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.41436949859572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>43.89138797581675</v>
       </c>
       <c r="G13" t="n">
-        <v>53.84017216636565</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>209.6248565600516</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>73.6053769893078</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>42.141936556049</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.89138797581721</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-5.258016244624741e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>865843.309244746</v>
+        <v>864339.4402103452</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>865843.309244746</v>
+        <v>864339.4402103452</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781637.0703705859</v>
+        <v>781637.0703705861</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781637.0703705859</v>
+        <v>781637.0703705861</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450830.445233392</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="C2" t="n">
-        <v>450830.4452333918</v>
+        <v>450830.4452333921</v>
       </c>
       <c r="D2" t="n">
         <v>450830.4452333918</v>
       </c>
       <c r="E2" t="n">
+        <v>398397.558561002</v>
+      </c>
+      <c r="F2" t="n">
         <v>398397.5585610018</v>
-      </c>
-      <c r="F2" t="n">
-        <v>398397.5585610021</v>
       </c>
       <c r="G2" t="n">
         <v>450830.4452333922</v>
       </c>
       <c r="H2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="I2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333924</v>
       </c>
       <c r="J2" t="n">
         <v>450830.4452333915</v>
       </c>
       <c r="K2" t="n">
-        <v>450830.4452333915</v>
+        <v>450830.4452333917</v>
       </c>
       <c r="L2" t="n">
+        <v>450830.445233392</v>
+      </c>
+      <c r="M2" t="n">
         <v>450830.4452333921</v>
       </c>
-      <c r="M2" t="n">
-        <v>450830.4452333922</v>
-      </c>
       <c r="N2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333923</v>
       </c>
       <c r="O2" t="n">
         <v>450830.4452333922</v>
       </c>
       <c r="P2" t="n">
-        <v>450830.4452333924</v>
+        <v>450830.4452333922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062186</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761036</v>
@@ -26436,7 +26436,7 @@
         <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,13 +26445,13 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="N4" t="n">
         <v>186364.8769761035</v>
-      </c>
-      <c r="N4" t="n">
-        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,22 +26491,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19613.41524742881</v>
+        <v>-14961.19562625366</v>
       </c>
       <c r="C6" t="n">
-        <v>162591.5330444269</v>
+        <v>158897.4614078012</v>
       </c>
       <c r="D6" t="n">
-        <v>154846.9523408065</v>
+        <v>147110.6631174147</v>
       </c>
       <c r="E6" t="n">
-        <v>94483.01690259547</v>
+        <v>94273.28535590599</v>
       </c>
       <c r="F6" t="n">
-        <v>206605.5783766402</v>
+        <v>206395.8468299504</v>
       </c>
       <c r="G6" t="n">
         <v>158870.473405087</v>
       </c>
       <c r="H6" t="n">
-        <v>206295.7989417688</v>
+        <v>206295.798941769</v>
       </c>
       <c r="I6" t="n">
         <v>206295.7989417691</v>
       </c>
       <c r="J6" t="n">
-        <v>-6746.118655517334</v>
+        <v>-229.8335009438815</v>
       </c>
       <c r="K6" t="n">
-        <v>200056.0305389853</v>
+        <v>200056.0305389855</v>
       </c>
       <c r="L6" t="n">
-        <v>144873.4416043647</v>
+        <v>140824.6043938924</v>
       </c>
       <c r="M6" t="n">
-        <v>164094.969482146</v>
+        <v>163043.2744709577</v>
       </c>
       <c r="N6" t="n">
-        <v>206295.7989417689</v>
+        <v>206295.7989417691</v>
       </c>
       <c r="O6" t="n">
-        <v>178528.1048989979</v>
+        <v>178528.1048989978</v>
       </c>
       <c r="P6" t="n">
-        <v>206295.7989417692</v>
+        <v>206295.798941769</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660693</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287433</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485774</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485774</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,16 +27379,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>338.9663040824873</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98.57632952213049</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>66.31852263746111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>97.85427204747435</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27552,7 +27552,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27588,19 +27588,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>148.6855527929985</v>
+        <v>124.8917514574866</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>366.8609778523871</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>204.1318830803786</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>145.5218557922907</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270271</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>19.73743940184119</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>87.62118754448952</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>158.7486747863429</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>271.2441823536269</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27913,7 +27913,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>123.269409138885</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28749,11 +28749,11 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,17 +28980,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668771</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>30.272237659013</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833265</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893135</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.868342022471</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254189</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,20 +30165,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668753</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,16 +30639,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,13 +30876,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>28.01250026485263</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>395.494063112452</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>162.8911480034108</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701646</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>9.378756902227758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>230.5022126169233</v>
       </c>
       <c r="N5" t="n">
-        <v>480.1071709689641</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>468.668406077632</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>90.94294915246407</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,13 +35179,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>316.9893628657432</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>356.0686292865269</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553815</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9121652090696</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272227</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>521.2621850527985</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>392.8806780907926</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>424.9260266620924</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144216</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184964</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155191</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537677</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>338.9576825854773</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>271.2165915595499</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269437</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528463</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>193.7979950868726</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
